--- a/工作宝客户端测试文档/商机管理测试文档.xlsx
+++ b/工作宝客户端测试文档/商机管理测试文档.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>商机管理测试文档</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>显示所选条件下的商机列表</t>
+  </si>
+  <si>
+    <t>商机管理列表详情</t>
+  </si>
+  <si>
+    <t>点击列表进入详情</t>
+  </si>
+  <si>
+    <t>显示与列表对应的商机详情，显示正确</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -129,15 +138,20 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="9"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="12"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -146,18 +160,12 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -171,8 +179,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -182,6 +202,41 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -191,7 +246,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -200,10 +255,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -212,13 +278,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -233,7 +299,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -245,7 +311,7 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -257,7 +323,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -282,6 +348,19 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -291,65 +370,77 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -369,9 +460,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff004c7f"/>
-      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffececec"/>
     </indexedColors>
@@ -390,10 +483,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -570,11 +663,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -583,27 +679,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -860,10 +956,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1154,7 +1250,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1435,11 +1531,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1447,231 +1541,263 @@
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="36.25" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" t="s" s="12">
         <v>9</v>
       </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.25" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C5" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="D5" t="s" s="14">
         <v>9</v>
       </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="64.8" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="D6" t="s" s="12">
         <v>9</v>
       </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="36.25" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="C7" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" t="s" s="14">
         <v>9</v>
       </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="22.25" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="D8" t="s" s="9">
+      <c r="D8" t="s" s="12">
         <v>9</v>
       </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="36.25" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="10">
+      <c r="B9" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="C9" t="s" s="15">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="D9" t="s" s="14">
         <v>9</v>
       </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="22.25" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="B10" t="s" s="13">
+      <c r="B10" t="s" s="16">
         <v>26</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="C10" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" t="s" s="12">
         <v>9</v>
       </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="22.25" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" t="s" s="15">
+      <c r="A11" s="17"/>
+      <c r="B11" t="s" s="18">
         <v>28</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="C11" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="D11" t="s" s="14">
         <v>9</v>
       </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="36.25" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" t="s" s="13">
+      <c r="A12" s="17"/>
+      <c r="B12" t="s" s="16">
         <v>30</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="D12" t="s" s="9">
+      <c r="D12" t="s" s="12">
         <v>9</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="19.95" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="A13" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="19.95" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" ht="19.95" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" ht="19.95" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/工作宝客户端测试文档/商机管理测试文档.xlsx
+++ b/工作宝客户端测试文档/商机管理测试文档.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>商机管理测试文档</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>显示与列表对应的商机详情，显示正确</t>
+  </si>
+  <si>
+    <t>商机详情的批复</t>
+  </si>
+  <si>
+    <t>点击详情批复按钮</t>
+  </si>
+  <si>
+    <t>可对商机进行批复，Android按钮为有批复权限的时候显示，iOS端位显示，当为自己时，提示不能对自己进行批复</t>
   </si>
 </sst>
 </file>
@@ -370,7 +379,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -428,16 +437,13 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1531,7 +1537,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1725,79 +1731,35 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" ht="19.95" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" ht="19.95" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" ht="19.95" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
